--- a/RailIndexPrj/4_19国家铁路省、市、自治区客运周转量.xlsx
+++ b/RailIndexPrj/4_19国家铁路省、市、自治区客运周转量.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目\6个人\railwayIdx-develop - 1201\RailIndexPrj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuzhi\Documents\R\work-directory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -261,6 +261,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -502,7 +505,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -787,16 +790,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -897,7 +900,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:33" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
@@ -998,9 +1001,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
-        <v>27029</v>
+        <v>1973</v>
       </c>
       <c r="B3" s="10">
         <v>899.87</v>
@@ -1093,9 +1096,9 @@
         <v>8.89</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
-        <v>27394</v>
+        <v>1974</v>
       </c>
       <c r="B4" s="10">
         <v>922.84</v>
@@ -1188,9 +1191,9 @@
         <v>9.49</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
-        <v>27759</v>
+        <v>1975</v>
       </c>
       <c r="B5" s="10">
         <v>952.59</v>
@@ -1283,9 +1286,9 @@
         <v>10.26</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
-        <v>28125</v>
+        <v>1976</v>
       </c>
       <c r="B6" s="14">
         <v>954.7</v>
@@ -1378,9 +1381,9 @@
         <v>9.43</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
-        <v>28490</v>
+        <v>1977</v>
       </c>
       <c r="B7" s="10">
         <v>1020.15</v>
@@ -1473,9 +1476,9 @@
         <v>9.19</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
-        <v>28855</v>
+        <v>1978</v>
       </c>
       <c r="B8" s="10">
         <v>1090.81</v>
@@ -1568,9 +1571,9 @@
         <v>10.35</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
-        <v>29220</v>
+        <v>1979</v>
       </c>
       <c r="B9" s="10">
         <v>1213.73</v>
@@ -1663,9 +1666,9 @@
         <v>12.46</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
-        <v>29586</v>
+        <v>1980</v>
       </c>
       <c r="B10" s="17">
         <v>1380.37</v>
@@ -1758,9 +1761,9 @@
         <v>14.22</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
-        <v>29951</v>
+        <v>1981</v>
       </c>
       <c r="B11" s="14">
         <v>1469.87</v>
@@ -1853,9 +1856,9 @@
         <v>14.68</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
-        <v>30316</v>
+        <v>1982</v>
       </c>
       <c r="B12" s="10">
         <v>1572</v>
@@ -1948,9 +1951,9 @@
         <v>14.93</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
-        <v>30681</v>
+        <v>1983</v>
       </c>
       <c r="B13" s="10">
         <v>1773.39</v>
@@ -2043,9 +2046,9 @@
         <v>17.22</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
-        <v>31047</v>
+        <v>1984</v>
       </c>
       <c r="B14" s="10">
         <v>2043.15</v>
@@ -2138,9 +2141,9 @@
         <v>19.649999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
-        <v>31412</v>
+        <v>1985</v>
       </c>
       <c r="B15" s="17">
         <v>2412.5100000000002</v>
@@ -2233,9 +2236,9 @@
         <v>25.45</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
-        <v>31777</v>
+        <v>1986</v>
       </c>
       <c r="B16" s="14">
         <v>2583.11</v>
@@ -2328,9 +2331,9 @@
         <v>27.87</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
-        <v>32142</v>
+        <v>1987</v>
       </c>
       <c r="B17" s="10">
         <v>2839.59</v>
@@ -2423,9 +2426,9 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
-        <v>32508</v>
+        <v>1988</v>
       </c>
       <c r="B18" s="10">
         <v>3257.31</v>
@@ -2518,9 +2521,9 @@
         <v>33.26</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
-        <v>32873</v>
+        <v>1989</v>
       </c>
       <c r="B19" s="10">
         <v>3034.37</v>
@@ -2615,9 +2618,9 @@
         <v>32.44</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
-        <v>33238</v>
+        <v>1990</v>
       </c>
       <c r="B20" s="17">
         <v>2610.11</v>
@@ -2712,9 +2715,9 @@
         <v>27.48</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
-        <v>33603</v>
+        <v>1991</v>
       </c>
       <c r="B21" s="14">
         <v>2824.84</v>
@@ -2809,9 +2812,9 @@
         <v>32.630000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
-        <v>33969</v>
+        <v>1992</v>
       </c>
       <c r="B22" s="10">
         <v>3148.29</v>
@@ -2906,9 +2909,9 @@
         <v>34.630000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
-        <v>34334</v>
+        <v>1993</v>
       </c>
       <c r="B23" s="10">
         <v>3479.38</v>
@@ -3003,9 +3006,9 @@
         <v>39.049999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
-        <v>34699</v>
+        <v>1994</v>
       </c>
       <c r="B24" s="10">
         <v>3632.81</v>
@@ -3100,9 +3103,9 @@
         <v>44.17</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
-        <v>35064</v>
+        <v>1995</v>
       </c>
       <c r="B25" s="17">
         <v>3542.61</v>
@@ -3197,9 +3200,9 @@
         <v>43.94</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
-        <v>35430</v>
+        <v>1996</v>
       </c>
       <c r="B26" s="14">
         <v>3322.02</v>
@@ -3294,9 +3297,9 @@
         <v>46.62</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
-        <v>35795</v>
+        <v>1997</v>
       </c>
       <c r="B27" s="10">
         <v>3543.53</v>
@@ -3393,9 +3396,9 @@
         <v>49.3</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
-        <v>36160</v>
+        <v>1998</v>
       </c>
       <c r="B28" s="10">
         <v>3690.97</v>
@@ -3492,9 +3495,9 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
-        <v>36525</v>
+        <v>1999</v>
       </c>
       <c r="B29" s="10">
         <v>4046.27</v>
@@ -3591,9 +3594,9 @@
         <v>61.43</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
-        <v>36891</v>
+        <v>2000</v>
       </c>
       <c r="B30" s="17">
         <v>4414.68</v>
@@ -3690,9 +3693,9 @@
         <v>74.09</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
-        <v>37256</v>
+        <v>2001</v>
       </c>
       <c r="B31" s="14">
         <v>4636.55</v>
@@ -3789,9 +3792,9 @@
         <v>83.25</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
-        <v>37621</v>
+        <v>2002</v>
       </c>
       <c r="B32" s="10">
         <v>4803.05</v>
@@ -3888,9 +3891,9 @@
         <v>87.78</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
-        <v>37986</v>
+        <v>2003</v>
       </c>
       <c r="B33" s="10">
         <v>4622.79</v>
@@ -3987,9 +3990,9 @@
         <v>88.47</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
-        <v>38352</v>
+        <v>2004</v>
       </c>
       <c r="B34" s="10">
         <v>5511.96</v>
@@ -4088,9 +4091,9 @@
         <v>101.68</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
-        <v>38717</v>
+        <v>2005</v>
       </c>
       <c r="B35" s="17">
         <v>5833.2</v>
@@ -4189,9 +4192,9 @@
         <v>107.66</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
-        <v>39082</v>
+        <v>2006</v>
       </c>
       <c r="B36" s="14">
         <v>6353.27</v>
@@ -4288,9 +4291,9 @@
         <v>119.58</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
-        <v>39447</v>
+        <v>2007</v>
       </c>
       <c r="B37" s="10">
         <v>6896.18</v>
@@ -4389,9 +4392,9 @@
         <v>128.1</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
-        <v>39813</v>
+        <v>2008</v>
       </c>
       <c r="B38" s="10">
         <v>7739.15</v>
@@ -4490,9 +4493,9 @@
         <v>131.91</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
-        <v>40178</v>
+        <v>2009</v>
       </c>
       <c r="B39" s="10">
         <v>7840.34</v>
@@ -4591,9 +4594,9 @@
         <v>134.15</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
-        <v>40543</v>
+        <v>2010</v>
       </c>
       <c r="B40" s="17">
         <v>8725.57</v>
@@ -4692,9 +4695,9 @@
         <v>149.69999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
-        <v>40908</v>
+        <v>2011</v>
       </c>
       <c r="B41" s="14">
         <v>9582.23</v>
@@ -4793,9 +4796,9 @@
         <v>191.61</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
-        <v>41274</v>
+        <v>2012</v>
       </c>
       <c r="B42" s="10">
         <v>9783.99</v>
@@ -4894,9 +4897,9 @@
         <v>210.43</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
-        <v>41639</v>
+        <v>2013</v>
       </c>
       <c r="B43" s="10">
         <v>10550.07</v>
@@ -4995,9 +4998,9 @@
         <v>224.83</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
-        <v>42004</v>
+        <v>2014</v>
       </c>
       <c r="B44" s="10">
         <v>11556.3</v>

--- a/RailIndexPrj/4_19国家铁路省、市、自治区客运周转量.xlsx
+++ b/RailIndexPrj/4_19国家铁路省、市、自治区客运周转量.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuzhi\Documents\R\work-directory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目\6个人\railwayIdx-develop - 1201\RailIndexPrj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -261,9 +261,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -505,7 +502,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -790,16 +787,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -900,7 +897,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
@@ -1001,9 +998,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A3" s="24">
-        <v>1973</v>
+        <v>27029</v>
       </c>
       <c r="B3" s="10">
         <v>899.87</v>
@@ -1096,9 +1093,9 @@
         <v>8.89</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
-        <v>1974</v>
+        <v>27394</v>
       </c>
       <c r="B4" s="10">
         <v>922.84</v>
@@ -1191,9 +1188,9 @@
         <v>9.49</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A5" s="24">
-        <v>1975</v>
+        <v>27759</v>
       </c>
       <c r="B5" s="10">
         <v>952.59</v>
@@ -1286,9 +1283,9 @@
         <v>10.26</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A6" s="24">
-        <v>1976</v>
+        <v>28125</v>
       </c>
       <c r="B6" s="14">
         <v>954.7</v>
@@ -1381,9 +1378,9 @@
         <v>9.43</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A7" s="24">
-        <v>1977</v>
+        <v>28490</v>
       </c>
       <c r="B7" s="10">
         <v>1020.15</v>
@@ -1476,9 +1473,9 @@
         <v>9.19</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
-        <v>1978</v>
+        <v>28855</v>
       </c>
       <c r="B8" s="10">
         <v>1090.81</v>
@@ -1571,9 +1568,9 @@
         <v>10.35</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A9" s="24">
-        <v>1979</v>
+        <v>29220</v>
       </c>
       <c r="B9" s="10">
         <v>1213.73</v>
@@ -1666,9 +1663,9 @@
         <v>12.46</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A10" s="24">
-        <v>1980</v>
+        <v>29586</v>
       </c>
       <c r="B10" s="17">
         <v>1380.37</v>
@@ -1761,9 +1758,9 @@
         <v>14.22</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A11" s="24">
-        <v>1981</v>
+        <v>29951</v>
       </c>
       <c r="B11" s="14">
         <v>1469.87</v>
@@ -1856,9 +1853,9 @@
         <v>14.68</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A12" s="24">
-        <v>1982</v>
+        <v>30316</v>
       </c>
       <c r="B12" s="10">
         <v>1572</v>
@@ -1951,9 +1948,9 @@
         <v>14.93</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A13" s="24">
-        <v>1983</v>
+        <v>30681</v>
       </c>
       <c r="B13" s="10">
         <v>1773.39</v>
@@ -2046,9 +2043,9 @@
         <v>17.22</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A14" s="24">
-        <v>1984</v>
+        <v>31047</v>
       </c>
       <c r="B14" s="10">
         <v>2043.15</v>
@@ -2141,9 +2138,9 @@
         <v>19.649999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A15" s="24">
-        <v>1985</v>
+        <v>31412</v>
       </c>
       <c r="B15" s="17">
         <v>2412.5100000000002</v>
@@ -2236,9 +2233,9 @@
         <v>25.45</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A16" s="24">
-        <v>1986</v>
+        <v>31777</v>
       </c>
       <c r="B16" s="14">
         <v>2583.11</v>
@@ -2331,9 +2328,9 @@
         <v>27.87</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A17" s="24">
-        <v>1987</v>
+        <v>32142</v>
       </c>
       <c r="B17" s="10">
         <v>2839.59</v>
@@ -2426,9 +2423,9 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A18" s="24">
-        <v>1988</v>
+        <v>32508</v>
       </c>
       <c r="B18" s="10">
         <v>3257.31</v>
@@ -2521,9 +2518,9 @@
         <v>33.26</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A19" s="24">
-        <v>1989</v>
+        <v>32873</v>
       </c>
       <c r="B19" s="10">
         <v>3034.37</v>
@@ -2618,9 +2615,9 @@
         <v>32.44</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A20" s="24">
-        <v>1990</v>
+        <v>33238</v>
       </c>
       <c r="B20" s="17">
         <v>2610.11</v>
@@ -2715,9 +2712,9 @@
         <v>27.48</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A21" s="24">
-        <v>1991</v>
+        <v>33603</v>
       </c>
       <c r="B21" s="14">
         <v>2824.84</v>
@@ -2812,9 +2809,9 @@
         <v>32.630000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A22" s="24">
-        <v>1992</v>
+        <v>33969</v>
       </c>
       <c r="B22" s="10">
         <v>3148.29</v>
@@ -2909,9 +2906,9 @@
         <v>34.630000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A23" s="24">
-        <v>1993</v>
+        <v>34334</v>
       </c>
       <c r="B23" s="10">
         <v>3479.38</v>
@@ -3006,9 +3003,9 @@
         <v>39.049999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A24" s="24">
-        <v>1994</v>
+        <v>34699</v>
       </c>
       <c r="B24" s="10">
         <v>3632.81</v>
@@ -3103,9 +3100,9 @@
         <v>44.17</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A25" s="24">
-        <v>1995</v>
+        <v>35064</v>
       </c>
       <c r="B25" s="17">
         <v>3542.61</v>
@@ -3200,9 +3197,9 @@
         <v>43.94</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A26" s="24">
-        <v>1996</v>
+        <v>35430</v>
       </c>
       <c r="B26" s="14">
         <v>3322.02</v>
@@ -3297,9 +3294,9 @@
         <v>46.62</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A27" s="24">
-        <v>1997</v>
+        <v>35795</v>
       </c>
       <c r="B27" s="10">
         <v>3543.53</v>
@@ -3396,9 +3393,9 @@
         <v>49.3</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A28" s="24">
-        <v>1998</v>
+        <v>36160</v>
       </c>
       <c r="B28" s="10">
         <v>3690.97</v>
@@ -3495,9 +3492,9 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A29" s="24">
-        <v>1999</v>
+        <v>36525</v>
       </c>
       <c r="B29" s="10">
         <v>4046.27</v>
@@ -3594,9 +3591,9 @@
         <v>61.43</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A30" s="24">
-        <v>2000</v>
+        <v>36891</v>
       </c>
       <c r="B30" s="17">
         <v>4414.68</v>
@@ -3693,9 +3690,9 @@
         <v>74.09</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A31" s="24">
-        <v>2001</v>
+        <v>37256</v>
       </c>
       <c r="B31" s="14">
         <v>4636.55</v>
@@ -3792,9 +3789,9 @@
         <v>83.25</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A32" s="24">
-        <v>2002</v>
+        <v>37621</v>
       </c>
       <c r="B32" s="10">
         <v>4803.05</v>
@@ -3891,9 +3888,9 @@
         <v>87.78</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A33" s="24">
-        <v>2003</v>
+        <v>37986</v>
       </c>
       <c r="B33" s="10">
         <v>4622.79</v>
@@ -3990,9 +3987,9 @@
         <v>88.47</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A34" s="24">
-        <v>2004</v>
+        <v>38352</v>
       </c>
       <c r="B34" s="10">
         <v>5511.96</v>
@@ -4091,9 +4088,9 @@
         <v>101.68</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A35" s="24">
-        <v>2005</v>
+        <v>38717</v>
       </c>
       <c r="B35" s="17">
         <v>5833.2</v>
@@ -4192,9 +4189,9 @@
         <v>107.66</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A36" s="24">
-        <v>2006</v>
+        <v>39082</v>
       </c>
       <c r="B36" s="14">
         <v>6353.27</v>
@@ -4291,9 +4288,9 @@
         <v>119.58</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A37" s="24">
-        <v>2007</v>
+        <v>39447</v>
       </c>
       <c r="B37" s="10">
         <v>6896.18</v>
@@ -4392,9 +4389,9 @@
         <v>128.1</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A38" s="24">
-        <v>2008</v>
+        <v>39813</v>
       </c>
       <c r="B38" s="10">
         <v>7739.15</v>
@@ -4493,9 +4490,9 @@
         <v>131.91</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A39" s="24">
-        <v>2009</v>
+        <v>40178</v>
       </c>
       <c r="B39" s="10">
         <v>7840.34</v>
@@ -4594,9 +4591,9 @@
         <v>134.15</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A40" s="24">
-        <v>2010</v>
+        <v>40543</v>
       </c>
       <c r="B40" s="17">
         <v>8725.57</v>
@@ -4695,9 +4692,9 @@
         <v>149.69999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A41" s="24">
-        <v>2011</v>
+        <v>40908</v>
       </c>
       <c r="B41" s="14">
         <v>9582.23</v>
@@ -4796,9 +4793,9 @@
         <v>191.61</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A42" s="24">
-        <v>2012</v>
+        <v>41274</v>
       </c>
       <c r="B42" s="10">
         <v>9783.99</v>
@@ -4897,9 +4894,9 @@
         <v>210.43</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A43" s="24">
-        <v>2013</v>
+        <v>41639</v>
       </c>
       <c r="B43" s="10">
         <v>10550.07</v>
@@ -4998,9 +4995,9 @@
         <v>224.83</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A44" s="24">
-        <v>2014</v>
+        <v>42004</v>
       </c>
       <c r="B44" s="10">
         <v>11556.3</v>
